--- a/generator/input/reg_maps/reg_map_briom_1rele.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_1rele.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2925D8-CA3E-45AF-8249-3A9D9B8DEC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A1C624-27D7-4DDA-9A7C-6CE8B4E47AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -312,24 +312,6 @@
     <t>Vref external (V)</t>
   </si>
   <si>
-    <t>ai_value</t>
-  </si>
-  <si>
-    <t>ai_calib_a</t>
-  </si>
-  <si>
-    <t>ai_calib_b</t>
-  </si>
-  <si>
-    <t>Measured value</t>
-  </si>
-  <si>
-    <t>Calibration coef A</t>
-  </si>
-  <si>
-    <t>Calibration coef B</t>
-  </si>
-  <si>
     <t>adc_int_state</t>
   </si>
   <si>
@@ -376,12 +358,6 @@
   </si>
   <si>
     <t>SAND_PROP_ACCESS</t>
-  </si>
-  <si>
-    <t>{0.0f,0.0f}</t>
-  </si>
-  <si>
-    <t>{16.0f,16.0f}</t>
   </si>
   <si>
     <t>storage</t>
@@ -1052,7 +1028,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1062,7 +1038,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1101,33 +1077,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -1217,33 +1193,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1284,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -1316,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -1345,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>5</v>
@@ -1377,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F6" s="8">
         <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>23</v>
@@ -1414,10 +1390,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -1434,10 +1410,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -1474,10 +1450,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
@@ -1618,33 +1594,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1685,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -1714,10 +1690,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>48</v>
@@ -1726,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8">
         <v>240</v>
@@ -1749,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>280</v>
@@ -1760,10 +1736,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -1780,10 +1756,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
@@ -1832,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8">
         <v>367</v>
@@ -1855,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F10" s="8">
         <v>368</v>
@@ -1966,10 +1942,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
@@ -1978,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F16" s="8">
         <v>380</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>47</v>
@@ -1992,10 +1968,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>43</v>
@@ -2004,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F17" s="8">
         <v>382</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>47</v>
@@ -2018,10 +1994,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>43</v>
@@ -2030,13 +2006,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F18" s="8">
         <v>384</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>47</v>
@@ -2044,10 +2020,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -2056,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F19" s="8">
         <v>386</v>
@@ -2116,33 +2092,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2183,10 +2159,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -2212,10 +2188,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -2235,7 +2211,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -2272,10 +2248,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>27</v>
@@ -2332,33 +2308,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2399,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -2420,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F3" s="8">
         <v>500</v>
@@ -2440,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8">
         <v>501</v>
@@ -2466,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>502</v>
@@ -2492,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F6" s="8">
         <v>503</v>
@@ -2518,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8">
         <v>504</v>
@@ -2544,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="8">
         <v>505</v>
@@ -2570,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8">
         <v>506</v>
@@ -2596,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F10" s="8">
         <v>507</v>
@@ -2622,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F11" s="8">
         <v>508</v>
@@ -2670,33 +2646,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,19 +2713,19 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -2766,10 +2742,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -2778,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8">
         <v>602</v>
@@ -2798,10 +2774,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -2810,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>603</v>
@@ -2830,10 +2806,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>27</v>
@@ -2850,10 +2826,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>27</v>
@@ -2870,10 +2846,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -2890,10 +2866,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -2910,10 +2886,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -2930,10 +2906,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -2950,10 +2926,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -3010,33 +2986,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -3098,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F3" s="8">
         <v>800</v>
@@ -3112,10 +3088,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -3124,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8">
         <v>801</v>
@@ -3138,10 +3114,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -3150,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>802</v>
@@ -3158,10 +3134,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -3170,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F6" s="8">
         <v>803</v>
@@ -3178,10 +3154,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -3190,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8">
         <v>804</v>
@@ -3210,13 +3186,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:E6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,33 +3215,33 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,22 +3282,22 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -3330,90 +3306,90 @@
         <v>23</v>
       </c>
       <c r="F3" s="8">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8">
-        <v>1004</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>47</v>
+        <v>1102</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8">
-        <v>1008</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>47</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F6" s="8">
-        <v>1110</v>
+        <v>1105</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -3422,70 +3398,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="8">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1115</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
